--- a/docs/Sprints Backlogs/Sprint2 Backlog.xlsx
+++ b/docs/Sprints Backlogs/Sprint2 Backlog.xlsx
@@ -1558,49 +1558,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="40"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="40"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -1713,7 +1671,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.1704857107406077"/>
-          <c:y val="2.6881786835469143E-2"/>
+          <c:y val="2.688178683546915E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -1860,11 +1818,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="87859968"/>
-        <c:axId val="87861888"/>
+        <c:axId val="80757888"/>
+        <c:axId val="80759808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87859968"/>
+        <c:axId val="80757888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1896,7 +1854,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.41558653408557095"/>
+              <c:x val="0.415586534085571"/>
               <c:y val="0.93052333586002856"/>
             </c:manualLayout>
           </c:layout>
@@ -1934,7 +1892,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87861888"/>
+        <c:crossAx val="80759808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1943,7 +1901,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87861888"/>
+        <c:axId val="80759808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -2025,7 +1983,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87859968"/>
+        <c:crossAx val="80757888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2444,7 +2402,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3469,7 +3427,7 @@
       </c>
       <c r="S30" s="39">
         <f ca="1">NOW()</f>
-        <v>41675.838163194443</v>
+        <v>41688.93801273148</v>
       </c>
     </row>
     <row r="32" spans="1:53">
@@ -3492,22 +3450,22 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="S29 T27">
-    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R40">
-    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:T19">
-    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:AP2">
-    <cfRule type="cellIs" dxfId="3" priority="158" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="158" stopIfTrue="1" operator="between">
       <formula>$S$30</formula>
       <formula>$S$30-1</formula>
     </cfRule>
@@ -4256,7 +4214,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="Q3:R20">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
